--- a/data/Analyse5.xlsx
+++ b/data/Analyse5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t xml:space="preserve">Jahr</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t xml:space="preserve">Luzern 17.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michele</t>
   </si>
 </sst>
 </file>
@@ -533,10 +530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN28"/>
+  <dimension ref="A1:AN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AE28" activeCellId="0" sqref="AE28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3842,71 +3839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="n">
-        <v>2024</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="H28" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="Q28" s="4" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="R28" s="4" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="S28" s="4" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="T28" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="U28" s="4" t="n">
-        <v>28.63</v>
-      </c>
-      <c r="Y28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="4" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="AI28" s="4" t="n">
-        <v>55.23</v>
-      </c>
-      <c r="AJ28" s="4" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="AK28" s="4" t="n">
-        <v>29.44</v>
-      </c>
-      <c r="AL28" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AM28" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN28" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
